--- a/___Cost_Analysis-Notas___/tareas/David_Corzo_-_Ejercicio10,11,12_.xlsx
+++ b/___Cost_Analysis-Notas___/tareas/David_Corzo_-_Ejercicio10,11,12_.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian Jenatz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\3_Semestre-[Enero-Mayo-2020]\____SumaDeCursosUFM2.1____\___Cost_Analysis-Notas___\tareas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C9ED44-337E-4E90-834E-4F9E22EDD45E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB78BF3-F6DA-4D6F-AB4D-556361D13DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio#10" sheetId="1" r:id="rId1"/>
@@ -1483,6 +1483,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1528,10 +1529,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1543,6 +1544,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1550,15 +1557,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1576,12 +1574,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1597,7 +1589,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1884,18 +1884,18 @@
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="36" t="s">
         <v>103</v>
@@ -1952,7 +1952,7 @@
         <v>375000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>379500</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>408500</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>2</v>
       </c>
@@ -2044,8 +2044,8 @@
         <v>22876000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>3</v>
       </c>
@@ -2053,7 +2053,7 @@
       <c r="C13" s="39"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>408500</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>206100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>614600</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>195900</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>8</v>
       </c>
@@ -2148,8 +2148,8 @@
         <v>418700</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>9</v>
       </c>
@@ -2157,7 +2157,7 @@
       <c r="C21" s="39"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="36" t="s">
         <v>103</v>
@@ -2169,7 +2169,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>418700</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>418700</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>5</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>119191</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>6</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>537891</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>7</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>230285</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>13</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>307606</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>14</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>15</v>
       </c>
@@ -2316,8 +2316,8 @@
         <v>13534664</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>16</v>
       </c>
@@ -2325,7 +2325,7 @@
       <c r="C33" s="39"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="36" t="s">
         <v>103</v>
@@ -2337,7 +2337,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>418700</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>418700</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>16</v>
       </c>
@@ -2416,8 +2416,8 @@
         <v>18422800</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>17</v>
       </c>
@@ -2425,7 +2425,7 @@
       <c r="C41" s="39"/>
       <c r="D41" s="11"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="36" t="s">
         <v>103</v>
@@ -2437,7 +2437,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>418700</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>0.85607800000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>19</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>358439.85859999998</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>3.5043519999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>21</v>
       </c>
@@ -2521,8 +2521,8 @@
         <v>1256100</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>22</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="C49" s="39"/>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>358439.85859999998</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>107</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>106</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>401452.64163199998</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>29</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>22</v>
       </c>
@@ -2615,8 +2615,8 @@
         <v>410153</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>28</v>
       </c>
@@ -2624,7 +2624,7 @@
       <c r="C56" s="39"/>
       <c r="D56" s="11"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="36" t="s">
         <v>103</v>
@@ -2636,7 +2636,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>30</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>25</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>23</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>10132540</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>24</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>13534664</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>26</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>23667204</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>27</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>119191</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>109</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>28</v>
       </c>
@@ -2769,8 +2769,8 @@
         <v>18422800</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="67" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>31</v>
       </c>
@@ -2778,7 +2778,7 @@
       <c r="C67" s="39"/>
       <c r="D67" s="11"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="36" t="s">
         <v>103</v>
@@ -2790,7 +2790,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>18422800</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>33</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>1256100</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>22</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>410153</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>34</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>20089053</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>4</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>418700</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>35</v>
       </c>
@@ -2892,8 +2892,8 @@
         <v>47.97958681633628</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>36</v>
       </c>
@@ -2901,7 +2901,7 @@
       <c r="C76" s="39"/>
       <c r="D76" s="11"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" s="36" t="s">
         <v>103</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>37</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>31</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>20089053</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>38</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>29483045.333244182</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>39</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>9888593</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>36</v>
       </c>
@@ -3000,16 +3000,16 @@
         <v>19594452.333244182</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="85" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A85" s="86" t="s">
+    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A85" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="B85" s="87"/>
-      <c r="C85" s="87"/>
-      <c r="D85" s="88"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B85" s="88"/>
+      <c r="C85" s="88"/>
+      <c r="D85" s="89"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="36" t="s">
         <v>103</v>
@@ -3021,7 +3021,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>41</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>22876000</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="17" t="s">
         <v>42</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>19594452.333244182</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>43</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>3281547.6667558178</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>44</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>45</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>46</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>2287600</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>47</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>917947.66675581783</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>48</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>229486.91668895446</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>49</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>2104055.0000668634</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>50</v>
       </c>
@@ -3210,40 +3210,40 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B1" s="95" t="s">
+    <row r="1" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="98"/>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
       <c r="H1" s="66"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B2" s="98"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+    <row r="2" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="99"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
       <c r="F2" s="66"/>
       <c r="G2" s="66"/>
       <c r="H2" s="66"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -3252,7 +3252,7 @@
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="65" t="s">
         <v>126</v>
       </c>
@@ -3272,7 +3272,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -3281,7 +3281,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
     </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
         <v>51</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="G6" s="59"/>
       <c r="H6" s="59"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="54" t="s">
         <v>103</v>
@@ -3307,7 +3307,7 @@
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
@@ -3347,7 +3347,7 @@
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>54</v>
       </c>
@@ -3367,7 +3367,7 @@
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -3376,7 +3376,7 @@
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>55</v>
       </c>
@@ -3396,7 +3396,7 @@
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -3405,7 +3405,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
     </row>
-    <row r="14" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="21" t="s">
         <v>56</v>
       </c>
@@ -3416,7 +3416,7 @@
       <c r="G14" s="59"/>
       <c r="H14" s="59"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="54" t="s">
         <v>103</v>
@@ -3431,7 +3431,7 @@
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
@@ -3451,7 +3451,7 @@
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
@@ -3471,7 +3471,7 @@
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>59</v>
       </c>
@@ -3491,7 +3491,7 @@
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>127</v>
       </c>
@@ -3511,7 +3511,7 @@
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>46</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
     </row>
-    <row r="21" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
@@ -3551,7 +3551,7 @@
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
     </row>
-    <row r="22" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
         <v>60</v>
       </c>
@@ -3571,7 +3571,7 @@
       <c r="G22" s="54"/>
       <c r="H22" s="54"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
@@ -3580,7 +3580,7 @@
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
     </row>
-    <row r="24" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" ht="21" x14ac:dyDescent="0.35">
       <c r="B24" s="21" t="s">
         <v>71</v>
       </c>
@@ -3591,7 +3591,7 @@
       <c r="G24" s="59"/>
       <c r="H24" s="59"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
@@ -3610,7 +3610,7 @@
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>129</v>
       </c>
@@ -3624,7 +3624,7 @@
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>128</v>
       </c>
@@ -3638,7 +3638,7 @@
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
     </row>
-    <row r="28" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>67</v>
       </c>
@@ -3652,7 +3652,7 @@
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
     </row>
-    <row r="29" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
         <v>72</v>
       </c>
@@ -3672,7 +3672,7 @@
       <c r="G29" s="54"/>
       <c r="H29" s="54"/>
     </row>
-    <row r="30" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -3681,7 +3681,7 @@
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
     </row>
-    <row r="31" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8" ht="21" x14ac:dyDescent="0.35">
       <c r="B31" s="83" t="s">
         <v>73</v>
       </c>
@@ -3701,7 +3701,7 @@
       <c r="G31" s="59"/>
       <c r="H31" s="59"/>
     </row>
-    <row r="32" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8" ht="21" x14ac:dyDescent="0.35">
       <c r="B32" s="77"/>
       <c r="C32" s="76"/>
       <c r="D32" s="76"/>
@@ -3710,7 +3710,7 @@
       <c r="G32" s="59"/>
       <c r="H32" s="59"/>
     </row>
-    <row r="33" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>138</v>
       </c>
@@ -3724,7 +3724,7 @@
       <c r="G33" s="59"/>
       <c r="H33" s="59"/>
     </row>
-    <row r="34" spans="2:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="80" t="s">
         <v>139</v>
       </c>
@@ -3738,32 +3738,32 @@
       <c r="G34" s="59"/>
       <c r="H34" s="59"/>
     </row>
-    <row r="36" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="89" t="s">
+    <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="92"/>
       <c r="I37" s="36"/>
       <c r="J37" s="36"/>
     </row>
-    <row r="38" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="92"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="94"/>
+    <row r="38" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="93"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="95"/>
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
     </row>
-    <row r="39" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="54" t="s">
         <v>118</v>
@@ -3786,7 +3786,7 @@
       <c r="I39" s="60"/>
       <c r="J39" s="60"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>63</v>
       </c>
@@ -3817,7 +3817,7 @@
       <c r="I40" s="36"/>
       <c r="J40" s="36"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>53</v>
       </c>
@@ -3848,7 +3848,7 @@
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
         <v>52</v>
       </c>
@@ -3879,7 +3879,7 @@
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
     </row>
-    <row r="43" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
@@ -3890,7 +3890,7 @@
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
     </row>
-    <row r="44" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>64</v>
       </c>
@@ -3903,7 +3903,7 @@
       <c r="I44" s="36"/>
       <c r="J44" s="36"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>122</v>
       </c>
@@ -3925,7 +3925,7 @@
       <c r="I45" s="36"/>
       <c r="J45" s="36"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>123</v>
       </c>
@@ -3947,7 +3947,7 @@
       <c r="I46" s="36"/>
       <c r="J46" s="36"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>65</v>
       </c>
@@ -3969,7 +3969,7 @@
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>111</v>
       </c>
@@ -3988,7 +3988,7 @@
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>112</v>
       </c>
@@ -4004,7 +4004,7 @@
       <c r="I49" s="15"/>
       <c r="J49" s="58"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>113</v>
       </c>
@@ -4017,7 +4017,7 @@
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
     </row>
-    <row r="51" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>114</v>
       </c>
@@ -4030,7 +4030,7 @@
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
     </row>
-    <row r="52" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>66</v>
       </c>
@@ -4061,32 +4061,32 @@
       <c r="I52" s="58"/>
       <c r="J52" s="36"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I53" s="36"/>
       <c r="J53" s="36"/>
     </row>
-    <row r="54" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B55" s="89" t="s">
+    <row r="54" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B55" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="92"/>
       <c r="F55" s="64"/>
       <c r="G55" s="64"/>
       <c r="H55" s="64"/>
     </row>
-    <row r="56" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B56" s="92"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="94"/>
+    <row r="56" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="93"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="95"/>
       <c r="F56" s="64"/>
       <c r="G56" s="64"/>
       <c r="H56" s="64"/>
     </row>
-    <row r="57" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="54" t="s">
         <v>110</v>
@@ -4101,7 +4101,7 @@
       <c r="G57" s="36"/>
       <c r="H57" s="36"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>68</v>
       </c>
@@ -4121,7 +4121,7 @@
       <c r="G58" s="36"/>
       <c r="H58" s="36"/>
     </row>
-    <row r="59" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
         <v>124</v>
       </c>
@@ -4141,7 +4141,7 @@
       <c r="G59" s="36"/>
       <c r="H59" s="36"/>
     </row>
-    <row r="60" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="19" t="s">
         <v>125</v>
       </c>
@@ -4161,7 +4161,7 @@
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
     </row>
-    <row r="61" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="36"/>
       <c r="D61" s="36"/>
@@ -4170,7 +4170,7 @@
       <c r="G61" s="36"/>
       <c r="H61" s="36"/>
     </row>
-    <row r="62" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>69</v>
       </c>
@@ -4183,7 +4183,7 @@
       <c r="G62" s="36"/>
       <c r="H62" s="36"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>115</v>
       </c>
@@ -4197,7 +4197,7 @@
       <c r="G63" s="36"/>
       <c r="H63" s="36"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>116</v>
       </c>
@@ -4211,7 +4211,7 @@
       <c r="G64" s="36"/>
       <c r="H64" s="36"/>
     </row>
-    <row r="65" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
         <v>142</v>
       </c>
@@ -4225,7 +4225,7 @@
       <c r="G65" s="36"/>
       <c r="H65" s="36"/>
     </row>
-    <row r="66" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="14" t="s">
         <v>70</v>
       </c>
@@ -4260,53 +4260,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B48C4A7-1F91-4E4B-ACCC-985CD571AEAD}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.88671875" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="50.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="124"/>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="106" t="s">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="108"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="111"/>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="112" t="s">
         <v>74</v>
       </c>
@@ -4320,21 +4320,21 @@
       <c r="G3" s="115"/>
       <c r="H3" s="116"/>
     </row>
-    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="117" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="119" t="s">
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="121"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="119"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>78</v>
       </c>
@@ -4352,7 +4352,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>79</v>
       </c>
@@ -4370,7 +4370,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -4384,7 +4384,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
@@ -4401,7 +4401,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>88</v>
       </c>
@@ -4418,19 +4418,19 @@
         <v>10232850</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="119" t="s">
+      <c r="E10" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -4444,21 +4444,21 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="117" t="s">
+    <row r="12" spans="1:11" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="103" t="s">
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="105"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="106"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>83</v>
       </c>
@@ -4476,7 +4476,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>86</v>
       </c>
@@ -4494,7 +4494,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>84</v>
       </c>
@@ -4508,7 +4508,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -4522,7 +4522,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>133</v>
       </c>
@@ -4536,7 +4536,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>90</v>
       </c>
@@ -4554,30 +4554,30 @@
         <v>31610220</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="101">
+      <c r="B19" s="107">
         <f>SUM(D8+D18)</f>
         <v>44343072</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
       <c r="E19" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="122">
+      <c r="F19" s="120">
         <f>H9+H18+H11</f>
         <v>44343070</v>
       </c>
-      <c r="G19" s="122"/>
-      <c r="H19" s="123"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G19" s="120"/>
+      <c r="H19" s="121"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21" s="38"/>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4587,31 +4587,31 @@
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="109" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="111"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="106" t="s">
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="124"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="108"/>
-    </row>
-    <row r="25" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="111"/>
+    </row>
+    <row r="25" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="112" t="s">
         <v>74</v>
       </c>
@@ -4625,21 +4625,21 @@
       <c r="G25" s="115"/>
       <c r="H25" s="116"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="117" t="s">
+    <row r="26" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="119" t="s">
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="121"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="119"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -4659,7 +4659,7 @@
       <c r="G27" s="15"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
@@ -4678,7 +4678,7 @@
       <c r="G28" s="15"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
@@ -4698,7 +4698,7 @@
       <c r="G29" s="15"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>81</v>
       </c>
@@ -4716,7 +4716,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>88</v>
       </c>
@@ -4733,19 +4733,19 @@
         <v>8450285.3166889548</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="119" t="s">
+      <c r="E32" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="121"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="119"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -4759,7 +4759,7 @@
       <c r="G33" s="56"/>
       <c r="H33" s="72"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -4774,7 +4774,7 @@
       <c r="G34" s="56"/>
       <c r="H34" s="72"/>
     </row>
-    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -4787,21 +4787,21 @@
         <v>1553246.1419523973</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="117" t="s">
+    <row r="36" spans="1:8" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="103" t="s">
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="105"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="106"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>83</v>
       </c>
@@ -4820,7 +4820,7 @@
       <c r="G37" s="15"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>86</v>
       </c>
@@ -4842,7 +4842,7 @@
       <c r="G38" s="15"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>84</v>
       </c>
@@ -4862,7 +4862,7 @@
       <c r="G39" s="15"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>85</v>
       </c>
@@ -4880,7 +4880,7 @@
       <c r="G40" s="15"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>133</v>
       </c>
@@ -4894,7 +4894,7 @@
       <c r="G41" s="15"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>140</v>
       </c>
@@ -4908,7 +4908,7 @@
       <c r="G42" s="15"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="s">
         <v>90</v>
       </c>
@@ -4926,32 +4926,32 @@
         <v>33714275.000066862</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="101">
+      <c r="B44" s="107">
         <f>D30+D43</f>
         <v>43717807.791952401</v>
       </c>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
       <c r="E44" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F44" s="122">
+      <c r="F44" s="120">
         <f>H31+H35+H43</f>
         <v>43717806.458708212</v>
       </c>
-      <c r="G44" s="122"/>
-      <c r="H44" s="123"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G44" s="120"/>
+      <c r="H44" s="121"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
-      <c r="E45" s="124">
+      <c r="E45" s="86">
         <f>B44-F44</f>
         <v>1.333244189620018</v>
       </c>
@@ -4961,16 +4961,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="F44:H44"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="A2:H2"/>
@@ -4983,6 +4973,16 @@
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="F19:H19"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="F44:H44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
